--- a/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт.xlsx
+++ b/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="60" windowWidth="13275" windowHeight="7005" tabRatio="150"/>
+    <workbookView xWindow="1050" yWindow="60" windowWidth="13275" windowHeight="7005" tabRatio="150"/>
   </bookViews>
   <sheets>
     <sheet name="ОтправкаВГЛ_экспорт" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>лаборатория</t>
   </si>
@@ -92,111 +87,45 @@
     <t>ном_обр</t>
   </si>
   <si>
-    <t>БАЛАШИХА</t>
-  </si>
-  <si>
-    <t>Домодедово</t>
-  </si>
-  <si>
-    <t>102</t>
+    <t>МО ЦПБ  СПИД ИЗ</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>М</t>
   </si>
   <si>
-    <t>11111111111</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Architect HIV Ag/Ab combo 13456ВЕ00</t>
-  </si>
-  <si>
-    <t>АБИНСК</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>Абатский р-н</t>
-  </si>
-  <si>
-    <t>город</t>
-  </si>
-  <si>
-    <t>гор окр</t>
-  </si>
-  <si>
-    <t>иововщшзроиавзровазровазщротвзщро</t>
-  </si>
-  <si>
-    <t>АЛАНИЯ</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>имф</t>
-  </si>
-  <si>
-    <t>авры</t>
-  </si>
-  <si>
-    <t>вапр</t>
-  </si>
-  <si>
-    <t>12311111111</t>
-  </si>
-  <si>
-    <t>Агаповский р-н</t>
-  </si>
-  <si>
-    <t>варав</t>
-  </si>
-  <si>
-    <t>варо</t>
-  </si>
-  <si>
-    <t>авпо</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>NEW LAV BLOT 00</t>
+    <t>Могойтуйский р-н</t>
+  </si>
+  <si>
+    <t>Грузия</t>
+  </si>
+  <si>
+    <t>Можайск</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ALINITY I HIV Ag/Ab Combo41177BE00</t>
   </si>
   <si>
     <t>0,1</t>
-  </si>
-  <si>
-    <t>1,056</t>
-  </si>
-  <si>
-    <t>Попов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="173" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -252,19 +181,19 @@
   </fills>
   <borders count="3">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="8"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="8"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -274,12 +203,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color indexed="22"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="22"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="22"/>
       </top>
@@ -292,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,7 +229,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,9 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -330,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -449,25 +375,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -475,25 +401,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -506,21 +432,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -534,7 +460,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -546,32 +472,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -591,12 +517,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="16392" zoomScaleSheetLayoutView="556" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -686,25 +610,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="d">
-        <v>2022-10-13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="d">
-        <v>2022-10-27</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -716,173 +640,37 @@
         <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4" t="d">
-        <v>2022-10-27</v>
+      <c r="R2" s="4">
+        <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="d">
-        <v>2022-10-27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="d">
-        <v>2022-10-27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="4" t="d">
-        <v>2022-10-27</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="d">
-        <v>2022-11-21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="d">
-        <v>2022-11-21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="4" t="d">
-        <v>2022-11-21</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт.xlsx
+++ b/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="60" windowWidth="13275" windowHeight="7005" tabRatio="150"/>
+    <workbookView xWindow="1980" yWindow="60" windowWidth="13275" windowHeight="7005" tabRatio="150"/>
   </bookViews>
   <sheets>
     <sheet name="ОтправкаВГЛ_экспорт" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>лаборатория</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>Иванов</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -221,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,7 +232,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -618,8 +626,8 @@
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>

--- a/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт.xlsx
+++ b/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7062A72-82A7-4972-9129-E328136ED268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" tabRatio="150"/>
+    <workbookView xWindow="1125" yWindow="60" windowWidth="13275" windowHeight="7005" tabRatio="150"/>
   </bookViews>
   <sheets>
     <sheet name="ОтправкаВГЛ_экспорт" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -144,33 +135,33 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -198,6 +189,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -211,45 +217,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,44 +266,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -340,31 +331,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -392,26 +366,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,166 +377,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -604,7 +537,7 @@
     <col min="17" max="22" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
